--- a/Curso Python/normalização/Regras_SKF.xlsx
+++ b/Curso Python/normalização/Regras_SKF.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel.almeida\Desktop\Projetos\Curso Python\normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080AD48-31E4-4B94-8D18-22E33DBD47F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7802C243-C052-4181-808E-CB87FD20B457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regras_SKF" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regras_SKF!$B$4:$I$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -676,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
@@ -721,6 +723,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -734,10 +742,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,7 +1061,7 @@
   <dimension ref="B2:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,48 +1079,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1132,7 @@
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1179,7 +1184,7 @@
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1198,7 +1203,7 @@
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
@@ -1219,7 +1224,7 @@
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="6"/>
@@ -1265,7 +1270,7 @@
       <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="6"/>
@@ -1311,10 +1316,10 @@
       <c r="B14" s="12">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="4"/>
@@ -1384,10 +1389,10 @@
       <c r="B17" s="12">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="4"/>
@@ -1430,7 +1435,7 @@
       <c r="B19" s="12">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1449,7 +1454,7 @@
       <c r="B20" s="12">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1468,7 +1473,7 @@
       <c r="B21" s="12">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1487,7 +1492,7 @@
       <c r="B22" s="12">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1506,7 +1511,7 @@
       <c r="B23" s="12">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1525,7 +1530,7 @@
       <c r="B24" s="12">
         <v>19</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1544,7 +1549,7 @@
       <c r="B25" s="12">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1563,7 +1568,7 @@
       <c r="B26" s="12">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1582,7 +1587,7 @@
       <c r="B27" s="12">
         <v>22</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1676,7 +1681,7 @@
       <c r="B31" s="12">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1695,7 +1700,7 @@
       <c r="B32" s="12">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1711,7 +1716,7 @@
       <c r="B33" s="12">
         <v>28</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1782,7 +1787,7 @@
       <c r="B36" s="12">
         <v>31</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -1826,7 +1831,7 @@
       <c r="B38" s="12">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1845,7 +1850,7 @@
       <c r="B39" s="12">
         <v>34</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -1891,7 +1896,7 @@
       <c r="B41" s="12">
         <v>36</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -1910,7 +1915,7 @@
       <c r="B42" s="12">
         <v>37</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -1929,7 +1934,7 @@
       <c r="B43" s="12">
         <v>38</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -1948,7 +1953,7 @@
       <c r="B44" s="12">
         <v>39</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -1967,7 +1972,7 @@
       <c r="B45" s="12">
         <v>40</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="22" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -1986,7 +1991,7 @@
       <c r="B46" s="12">
         <v>41</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="6"/>
@@ -2007,7 +2012,7 @@
       <c r="B47" s="12">
         <v>42</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="6"/>
@@ -2023,6 +2028,9 @@
       <c r="I47" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:I47" xr:uid="{92F9A078-A2F6-41E0-93D9-92DD45C82382}">
+    <filterColumn colId="6" showButton="0"/>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:B5"/>

--- a/Curso Python/normalização/Regras_SKF.xlsx
+++ b/Curso Python/normalização/Regras_SKF.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel.almeida\Desktop\Projetos\Curso Python\normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7802C243-C052-4181-808E-CB87FD20B457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF845AB1-870C-4BCB-9B40-3520B826DB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
@@ -729,6 +735,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -741,14 +750,23 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1058,10 +1076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1" filterMode="1"/>
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1079,48 +1098,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="64.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
         <v>1</v>
       </c>
@@ -1153,11 +1172,11 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="37.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1180,7 +1199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <v>3</v>
       </c>
@@ -1199,7 +1218,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <v>4</v>
       </c>
@@ -1220,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <v>5</v>
       </c>
@@ -1241,11 +1260,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1266,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="35.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <v>7</v>
       </c>
@@ -1287,11 +1306,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="25.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1312,7 +1331,7 @@
         <v>84822010</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <v>9</v>
       </c>
@@ -1338,7 +1357,7 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="4">
@@ -1358,7 +1377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="249" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="249" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>11</v>
       </c>
@@ -1385,11 +1404,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -1404,7 +1423,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="70.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>13</v>
       </c>
@@ -1431,11 +1450,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>14</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1450,11 +1469,11 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <v>15</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1469,11 +1488,11 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <v>16</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1488,7 +1507,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <v>17</v>
       </c>
@@ -1507,7 +1526,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <v>18</v>
       </c>
@@ -1526,7 +1545,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <v>19</v>
       </c>
@@ -1545,7 +1564,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <v>20</v>
       </c>
@@ -1564,7 +1583,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <v>21</v>
       </c>
@@ -1583,7 +1602,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <v>22</v>
       </c>
@@ -1602,11 +1621,11 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <v>23</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1627,11 +1646,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <v>24</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1652,11 +1671,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <v>25</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1677,11 +1696,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <v>26</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -1696,11 +1715,11 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <v>27</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1712,11 +1731,11 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>28</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1731,11 +1750,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -1756,7 +1775,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="299.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="299.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <v>30</v>
       </c>
@@ -1783,7 +1802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <v>31</v>
       </c>
@@ -1802,7 +1821,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="50.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>32</v>
       </c>
@@ -1827,7 +1846,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <v>33</v>
       </c>
@@ -1846,7 +1865,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <v>34</v>
       </c>
@@ -1865,7 +1884,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" ht="173.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="173.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <v>35</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <v>36</v>
       </c>
@@ -1911,7 +1930,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <v>37</v>
       </c>
@@ -1930,11 +1949,11 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <v>38</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -1949,11 +1968,11 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <v>39</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -1968,11 +1987,11 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <v>40</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -1987,7 +2006,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <v>41</v>
       </c>
@@ -2008,7 +2027,7 @@
         <v>60070001</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <v>42</v>
       </c>
@@ -2029,6 +2048,14 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:I47" xr:uid="{92F9A078-A2F6-41E0-93D9-92DD45C82382}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="_x000a_Planilha: Referencia | Coluna B: Descrição do Fabricante do Veículo_x000a_Planilha: Referencia | Coluna C: Números Referência"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">

--- a/Curso Python/normalização/Regras_SKF.xlsx
+++ b/Curso Python/normalização/Regras_SKF.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel.almeida\Desktop\Projetos\Curso Python\normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF845AB1-870C-4BCB-9B40-3520B826DB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527798F8-2E34-4F42-9802-8E66B353994F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regras_SKF" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regras_SKF!$B$4:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$3:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regras_SKF!$B$4:$J$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="170">
   <si>
     <t>Nº.</t>
   </si>
@@ -554,6 +556,228 @@
   </si>
   <si>
     <t>nivel1: Motor</t>
+  </si>
+  <si>
+    <t>Cod. Barras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agrale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alfa Romeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asia Motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baldan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caterpillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chrysler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Citroen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross Lander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daewoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIAT ALLIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gurgel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hyster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hyundai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IFLÓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iveco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J.F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jac</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Deere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jumil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Komatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Land Rover</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marchesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcopolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARRUCCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mazda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mercedes-Benz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitsubishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Holland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nissan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peugeot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porsche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projelmec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Randon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renault</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scania</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suzuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Troller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vence Tudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Volkswagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Volvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yale</t>
+  </si>
+  <si>
+    <t>Verificar , porque pode existir mais de uma linha para um mesmo id</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Verificar , porque pode existir mais de um grupo para um mesmo id</t>
   </si>
 </sst>
 </file>
@@ -652,7 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,11 +908,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
@@ -732,11 +953,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -750,23 +974,11 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1077,27 +1289,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1" filterMode="1"/>
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12" style="9" customWidth="1"/>
-    <col min="7" max="7" width="73.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12" style="8" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
         <v>67</v>
       </c>
@@ -1109,7 +1321,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
@@ -1132,931 +1344,937 @@
         <v>4</v>
       </c>
       <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="64.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12">
+    <row r="6" spans="2:10" ht="64.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3179</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>E6/$E$6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="14">
+      <c r="H6" s="5"/>
+      <c r="I6" s="13">
         <v>6007</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="37.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
+    <row r="7" spans="2:10" ht="37.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3147</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" ref="F7:F47" si="0">E7/$E$6</f>
         <v>0.98993394149103486</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12">
+    <row r="8" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+    <row r="10" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+    <row r="11" spans="2:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>3179</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="35.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+    <row r="12" spans="2:10" ht="35.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="25.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+    <row r="13" spans="2:10" ht="25.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3021</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>0.95029883611198485</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <v>84822010</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+    <row r="14" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="92.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>2602</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0.81849638251022339</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="249" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12">
+    <row r="16" spans="2:10" ht="249" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>3160</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>0.99402327776030197</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12">
+    <row r="17" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
+      <c r="E17" s="3"/>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" ht="70.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>3134</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>0.98584460522176787</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="J18" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5">
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+      <c r="E21" s="3"/>
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11">
         <v>17</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11">
         <v>18</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
         <v>19</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
+      <c r="E24" s="3"/>
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11">
         <v>20</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4">
         <f t="shared" ref="F25:F27" si="1">E25/$E$6</f>
         <v>0</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
         <v>21</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11">
         <v>22</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
+      <c r="E27" s="3"/>
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11">
         <v>23</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>2709</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>0.85215476564957537</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
+    <row r="29" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>2709</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>0.85215476564957537</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12">
+    <row r="30" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11">
         <v>25</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>2709</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f t="shared" si="0"/>
         <v>0.85215476564957537</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="12">
+    <row r="31" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11">
         <v>26</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5">
+      <c r="E31" s="3"/>
+      <c r="F31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="12">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11">
         <v>27</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="12">
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11">
         <v>28</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5">
+      <c r="E33" s="3"/>
+      <c r="F33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="12">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11">
         <v>29</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>3021</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="0"/>
         <v>0.95029883611198485</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="299.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="12">
+    <row r="35" spans="2:10" ht="299.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>1462</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="0"/>
         <v>0.45989304812834225</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="12">
+    <row r="36" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11">
         <v>31</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5">
+      <c r="E36" s="3"/>
+      <c r="F36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9" ht="50.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11">
         <v>32</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>3120</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="0"/>
         <v>0.98144070462409561</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="12">
+      <c r="J37" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="11">
         <v>33</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5">
+      <c r="E38" s="3"/>
+      <c r="F38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="12">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11">
         <v>34</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5">
+      <c r="E39" s="3"/>
+      <c r="F39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="2:9" ht="173.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="12">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" ht="173.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11">
         <v>35</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>3134</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f t="shared" si="0"/>
         <v>0.98584460522176787</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="12">
+    <row r="41" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11">
         <v>36</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5">
+      <c r="E41" s="3"/>
+      <c r="F41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="12">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="11">
         <v>37</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5">
+      <c r="E42" s="3"/>
+      <c r="F42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="12">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="11">
         <v>38</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5">
+      <c r="E43" s="3"/>
+      <c r="F43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="12">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="11">
         <v>39</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5">
+      <c r="E44" s="3"/>
+      <c r="F44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="12">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11">
         <v>40</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5">
+      <c r="E45" s="3"/>
+      <c r="F45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="12">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11">
         <v>41</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5">
+      <c r="D46" s="5"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5">
         <v>60070001</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="12">
+    <row r="47" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="11">
         <v>42</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4">
+      <c r="D47" s="5"/>
+      <c r="E47" s="3">
         <v>2240</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f t="shared" si="0"/>
         <v>0.70462409562755579</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:I47" xr:uid="{92F9A078-A2F6-41E0-93D9-92DD45C82382}">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
+  <autoFilter ref="B4:J47" xr:uid="{0C5B051B-E924-4E7F-A15E-6869D3D86559}">
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="_x000a_Planilha: Referencia | Coluna B: Descrição do Fabricante do Veículo_x000a_Planilha: Referencia | Coluna C: Números Referência"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="B2:I2"/>
@@ -2071,4 +2289,948 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46745E-7A2B-4A9E-BF51-BE75CE3F81A5}">
+  <dimension ref="A3:C73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B67" si="0">"'"&amp;TRIM(A3)&amp;"'"</f>
+        <v>'Cod. Barras'</v>
+      </c>
+      <c r="C3" t="str">
+        <f>B3</f>
+        <v>'Cod. Barras'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'AGCO'</v>
+      </c>
+      <c r="C4" t="str">
+        <f>C3&amp;", "&amp;B4</f>
+        <v>'Cod. Barras', 'AGCO'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Agrale'</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C68" si="1">C4&amp;", "&amp;B5</f>
+        <v>'Cod. Barras', 'AGCO', 'Agrale'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Alfa Romeo'</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'Asia Motors'</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Audi'</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Baldan'</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'BMW'</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'CASE'</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'Caterpillar'</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'CBT'</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Chrysler'</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Citroen'</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'CLASS'</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'Colombo'</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cross Lander'</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'Daewoo'</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'DAF'</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Dodge'</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fiat'</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'FIAT ALLIS'</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'FNH'</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'FNM'</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ford'</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'GM'</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'GMC'</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'Gurgel'</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Honda'</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hyster'</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hyundai'</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'IFLÓ'</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'International'</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'Iveco'</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>'J.F.'</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jac'</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jacto'</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>'JAN'</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jeep'</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>'John Deere'</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jumil'</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kia'</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>'Komatsu'</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>'Lada'</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>'Land Rover'</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover'</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>'Man'</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man'</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>'Marchesan'</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan'</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>'Marcopolo'</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo'</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>'MARRUCCI'</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mazda'</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mercedes-Benz'</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz'</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mini'</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mitsubishi'</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi'</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>'New Holland'</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland'</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>'Nissan'</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>'Peugeot'</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>'Porsche'</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>'Projelmec'</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>'Randon'</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>'Renault'</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>'Scania'</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>'Seat'</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>'STARA'</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>'Subaru'</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru'</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>'Suzuki'</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>'Toyota'</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B73" si="2">"'"&amp;TRIM(A68)&amp;"'"</f>
+        <v>'Troller'</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota', 'Troller'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>'Valtra'</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:C73" si="3">C68&amp;", "&amp;B69</f>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota', 'Troller', 'Valtra'</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>'Vence Tudo'</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota', 'Troller', 'Valtra', 'Vence Tudo'</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>'Volkswagen'</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota', 'Troller', 'Valtra', 'Vence Tudo', 'Volkswagen'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>'Volvo'</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota', 'Troller', 'Valtra', 'Vence Tudo', 'Volkswagen', 'Volvo'</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>'Yale'</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>'Cod. Barras', 'AGCO', 'Agrale', 'Alfa Romeo', 'Asia Motors', 'Audi', 'Baldan', 'BMW', 'CASE', 'Caterpillar', 'CBT', 'Chrysler', 'Citroen', 'CLASS', 'Colombo', 'Cross Lander', 'Daewoo', 'DAF', 'Dodge', 'Fiat', 'FIAT ALLIS', 'FNH', 'FNM', 'Ford', 'GM', 'GMC', 'Gurgel', 'Honda', 'Hyster', 'Hyundai', 'IFLÓ', 'International', 'Iveco', 'J.F.', 'Jac', 'Jacto', 'JAN', 'Jeep', 'John Deere', 'Jumil', 'Kia', 'Komatsu', 'Lada', 'Land Rover', 'Man', 'Marchesan', 'Marcopolo', 'MARRUCCI', 'Mazda', 'Mercedes-Benz', 'Mini', 'Mitsubishi', 'New Holland', 'Nissan', 'Peugeot', 'Porsche', 'Projelmec', 'Randon', 'Renault', 'Scania', 'Seat', 'STARA', 'Subaru', 'Suzuki', 'Toyota', 'Troller', 'Valtra', 'Vence Tudo', 'Volkswagen', 'Volvo', 'Yale'</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C3" xr:uid="{FED96145-C300-4495-AD4D-1A98E352DA30}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Curso Python/normalização/Regras_SKF.xlsx
+++ b/Curso Python/normalização/Regras_SKF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel.almeida\Desktop\Projetos\Curso Python\normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527798F8-2E34-4F42-9802-8E66B353994F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4E1CD-4511-49DA-ABCB-39E431D966EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,7 +978,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1291,8 +1300,8 @@
   <sheetPr codeName="Planilha1" filterMode="1"/>
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1647,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:10" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="70.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11">
         <v>13</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="299.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" ht="299.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11">
         <v>30</v>
       </c>
@@ -2039,7 +2048,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="50.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11">
         <v>32</v>
       </c>
@@ -2105,7 +2114,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="173.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="173.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11">
         <v>35</v>
       </c>
@@ -2269,12 +2278,10 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:J47" xr:uid="{0C5B051B-E924-4E7F-A15E-6869D3D86559}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="B2:I2"/>

--- a/Curso Python/normalização/Regras_SKF.xlsx
+++ b/Curso Python/normalização/Regras_SKF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel.almeida\Desktop\Projetos\Curso Python\normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4E1CD-4511-49DA-ABCB-39E431D966EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CA8F0-E378-4698-A657-5F92CC8AC989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1300,8 +1300,8 @@
   <sheetPr codeName="Planilha1" filterMode="1"/>
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2016,7 @@
         <v>1462</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="0"/>
+        <f>E35/$E$6</f>
         <v>0.45989304812834225</v>
       </c>
       <c r="G35" s="6" t="s">

--- a/Curso Python/normalização/Regras_SKF.xlsx
+++ b/Curso Python/normalização/Regras_SKF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel.almeida\Desktop\Projetos\Curso Python\normalização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CA8F0-E378-4698-A657-5F92CC8AC989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2386A86-9745-46AB-9F34-789B7A9D067E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t>Nº.</t>
   </si>
@@ -771,13 +771,7 @@
     <t xml:space="preserve"> Yale</t>
   </si>
   <si>
-    <t>Verificar , porque pode existir mais de uma linha para um mesmo id</t>
-  </si>
-  <si>
     <t>Obs</t>
-  </si>
-  <si>
-    <t>Verificar , porque pode existir mais de um grupo para um mesmo id</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1295,7 @@
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1348,7 @@
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1628,7 +1622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11">
         <v>12</v>
       </c>
@@ -1647,7 +1641,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:10" ht="70.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="70.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11">
         <v>13</v>
       </c>
@@ -1673,11 +1667,8 @@
       <c r="I18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11">
         <v>14</v>
       </c>
@@ -1696,7 +1687,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11">
         <v>15</v>
       </c>
@@ -1715,7 +1706,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>16</v>
       </c>
@@ -1734,7 +1725,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="11">
         <v>17</v>
       </c>
@@ -1753,7 +1744,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11">
         <v>18</v>
       </c>
@@ -1772,7 +1763,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11">
         <v>19</v>
       </c>
@@ -1791,7 +1782,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11">
         <v>20</v>
       </c>
@@ -1810,7 +1801,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11">
         <v>21</v>
       </c>
@@ -1829,7 +1820,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11">
         <v>22</v>
       </c>
@@ -1848,7 +1839,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11">
         <v>23</v>
       </c>
@@ -1873,7 +1864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11">
         <v>24</v>
       </c>
@@ -1898,7 +1889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11">
         <v>25</v>
       </c>
@@ -1923,7 +1914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>26</v>
       </c>
@@ -1942,7 +1933,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11">
         <v>27</v>
       </c>
@@ -1958,7 +1949,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11">
         <v>28</v>
       </c>
@@ -1977,7 +1968,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="11">
         <v>29</v>
       </c>
@@ -2002,11 +1993,11 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="299.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="299.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11">
         <v>30</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2029,7 +2020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="11">
         <v>31</v>
       </c>
@@ -2048,7 +2039,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="2:10" ht="50.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="50.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11">
         <v>32</v>
       </c>
@@ -2072,11 +2063,8 @@
       <c r="I37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11">
         <v>33</v>
       </c>
@@ -2095,7 +2083,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11">
         <v>34</v>
       </c>
@@ -2114,7 +2102,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="2:10" ht="173.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="173.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11">
         <v>35</v>
       </c>
@@ -2141,7 +2129,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11">
         <v>36</v>
       </c>
@@ -2160,7 +2148,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="11">
         <v>37</v>
       </c>
@@ -2179,7 +2167,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11">
         <v>38</v>
       </c>
@@ -2198,7 +2186,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="11">
         <v>39</v>
       </c>
@@ -2217,7 +2205,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11">
         <v>40</v>
       </c>
@@ -2236,7 +2224,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="11">
         <v>41</v>
       </c>
@@ -2257,7 +2245,7 @@
         <v>60070001</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11">
         <v>42</v>
       </c>
